--- a/Capstone/Job Table.xlsx
+++ b/Capstone/Job Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Resume 1 - Updatd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Resume 2 - Previous</t>
   </si>
@@ -121,13 +118,34 @@
   </si>
   <si>
     <t>1155 Perimeter Center W Ste 1200, Atlanta, GA 30338</t>
+  </si>
+  <si>
+    <t>Hiscox</t>
+  </si>
+  <si>
+    <t>5 Concourse Pkwy Suite 2150, Atlanta, GA 30328</t>
+  </si>
+  <si>
+    <t>Documents being analyzed for similarity</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Address No Longer Available</t>
+  </si>
+  <si>
+    <t>Job No Longer Available</t>
+  </si>
+  <si>
+    <t>Resume 1 - Updated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +183,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,8 +207,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -211,13 +251,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -231,6 +291,15 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -244,6 +313,15 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,16 +651,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="54.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="53.1640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="23" style="1" customWidth="1"/>
@@ -590,309 +668,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B5" s="3">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>33.847386999999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-84.431585999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>33.934144000000003</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-84.359620000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.80700000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="B7" s="3">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>33.865490000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-84.481408000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.998</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.82499999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B8" s="3">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1">
-        <v>33.847386999999998</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-84.431585999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="E8" s="3">
+        <v>33.773494999999997</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-84.387307000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3">
+        <v>33.940736000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-84.361513000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33.913781</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-84.342588000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3">
+        <v>33.657159</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-84.415204000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3">
+        <v>33.754154999999997</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-84.381389999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>33.786985999999999</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-84.388118000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="C14" s="3">
         <v>0.65600000000000003</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1">
-        <v>33.934144000000003</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-84.359620000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>33.865490000000001</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-84.481408000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3">
+        <v>33.791482000000002</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-84.386528999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3">
+        <v>34.033082999999998</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-84.564685999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3">
+        <v>33.930033999999999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-84.350865999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.871</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3">
+        <v>33.917079999999999</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-84.354512999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1">
-        <v>33.940736000000001</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-84.361513000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="B18" s="3">
         <v>0.75700000000000001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C18" s="3">
         <v>0.76100000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1">
-        <v>33.913781</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-84.342588000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="B19" s="3">
         <v>0.60599999999999998</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C19" s="3">
         <v>0.61099999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1">
-        <v>33.657159</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-84.415204000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1">
-        <v>33.754154999999997</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-84.381389999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1">
-        <v>33.786985999999999</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-84.388118000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1">
-        <v>33.791482000000002</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-84.386528999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1">
-        <v>34.033082999999998</v>
-      </c>
-      <c r="F17" s="1">
-        <v>-84.564685999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1">
-        <v>33.930033999999999</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-84.350865999999996</v>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
